--- a/runs/run749/NotionalETEOutput749.xlsx
+++ b/runs/run749/NotionalETEOutput749.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND3_State_Update</t>
+    <t>Missile_ANGERMAX3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND3_157.MISSILE_HIGHWIND3_157</t>
+    <t>MISSILE_ANGERMAX3_96.MISSILE_ANGERMAX3_96</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND3</t>
+    <t>MISSILE_ANGERMAX3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1477.077464467184</v>
+        <v>-1480.614745600533</v>
       </c>
       <c r="J2">
-        <v>1987.658360751852</v>
+        <v>1901.373784646177</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1506.210911190066</v>
+        <v>-1423.316633590189</v>
       </c>
       <c r="J3">
-        <v>1868.651895034432</v>
+        <v>2010.532098045567</v>
       </c>
       <c r="K3">
-        <v>298.0178041879585</v>
+        <v>316.6131170144168</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1476.963154494226</v>
+        <v>-1418.103916405474</v>
       </c>
       <c r="J4">
-        <v>1864.998013936011</v>
+        <v>1893.083544659046</v>
       </c>
       <c r="K4">
-        <v>606.4720841248113</v>
+        <v>606.9687388683841</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1365.374300050463</v>
+        <v>-1407.42011937035</v>
       </c>
       <c r="J5">
-        <v>1827.676199608554</v>
+        <v>1913.442815856801</v>
       </c>
       <c r="K5">
-        <v>888.178433043877</v>
+        <v>862.718525916449</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1381.136865489699</v>
+        <v>-1381.057482282978</v>
       </c>
       <c r="J6">
-        <v>1892.026613103185</v>
+        <v>1779.577455898763</v>
       </c>
       <c r="K6">
-        <v>1096.308507493854</v>
+        <v>1129.162289626848</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1377.447058513715</v>
+        <v>-1300.775350421075</v>
       </c>
       <c r="J7">
-        <v>1826.225847052433</v>
+        <v>1674.991918916369</v>
       </c>
       <c r="K7">
-        <v>1353.088318370533</v>
+        <v>1416.021480113171</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1363.955933503121</v>
+        <v>-1301.262043086548</v>
       </c>
       <c r="J8">
-        <v>1641.38902586888</v>
+        <v>1679.449338070237</v>
       </c>
       <c r="K8">
-        <v>1587.519012942838</v>
+        <v>1596.906202151163</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.36813288220297</v>
+        <v>-100.8159213366762</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1326.578727378491</v>
+        <v>-1320.300962277888</v>
       </c>
       <c r="J9">
-        <v>1583.734428575622</v>
+        <v>1677.215986119581</v>
       </c>
       <c r="K9">
-        <v>1743.752068175512</v>
+        <v>1720.482907243205</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>216.2429177778763</v>
+        <v>216.8595027193294</v>
       </c>
       <c r="G10">
-        <v>-81.18796140383471</v>
+        <v>-84.39456699971876</v>
       </c>
       <c r="H10">
-        <v>836.9443611449856</v>
+        <v>837.9907680069736</v>
       </c>
       <c r="I10">
-        <v>-1290.990127098582</v>
+        <v>-1188.582590807977</v>
       </c>
       <c r="J10">
-        <v>1601.296307080861</v>
+        <v>1678.17725999718</v>
       </c>
       <c r="K10">
-        <v>1961.194081375108</v>
+        <v>2104.236267085334</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.0253541831124</v>
+        <v>161.1400963026617</v>
       </c>
       <c r="G11">
-        <v>-67.72969230537176</v>
+        <v>-67.07137117322317</v>
       </c>
       <c r="H11">
-        <v>1095.940091116883</v>
+        <v>1021.223289195822</v>
       </c>
       <c r="I11">
-        <v>-1166.597475835795</v>
+        <v>-1241.111044929508</v>
       </c>
       <c r="J11">
-        <v>1519.991658394328</v>
+        <v>1618.725253369147</v>
       </c>
       <c r="K11">
-        <v>2184.358328128646</v>
+        <v>2295.612754845811</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.5698087134248</v>
+        <v>134.3253420258378</v>
       </c>
       <c r="G12">
-        <v>-49.28362797589969</v>
+        <v>-52.47431720853795</v>
       </c>
       <c r="H12">
-        <v>1164.158516151589</v>
+        <v>1227.517940622324</v>
       </c>
       <c r="I12">
-        <v>-1171.719432749736</v>
+        <v>-1226.503720172218</v>
       </c>
       <c r="J12">
-        <v>1499.214301166498</v>
+        <v>1509.427818043843</v>
       </c>
       <c r="K12">
-        <v>2285.870520313041</v>
+        <v>2374.801503039129</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>119.7534121227652</v>
+        <v>120.9429433083518</v>
       </c>
       <c r="G13">
-        <v>-33.98145029420963</v>
+        <v>-35.1553295416491</v>
       </c>
       <c r="H13">
-        <v>1318.802106748597</v>
+        <v>1254.375837908799</v>
       </c>
       <c r="I13">
-        <v>-1100.35344503156</v>
+        <v>-1135.166219212673</v>
       </c>
       <c r="J13">
-        <v>1493.365064465348</v>
+        <v>1525.976925764788</v>
       </c>
       <c r="K13">
-        <v>2483.345335804579</v>
+        <v>2540.598889448767</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>108.8094324990912</v>
+        <v>106.5740524341106</v>
       </c>
       <c r="G14">
-        <v>-17.19247706099123</v>
+        <v>-16.58663755005443</v>
       </c>
       <c r="H14">
-        <v>1269.426784387636</v>
+        <v>1379.301345492942</v>
       </c>
       <c r="I14">
-        <v>-1086.507689643048</v>
+        <v>-1075.588490540919</v>
       </c>
       <c r="J14">
-        <v>1482.196931891505</v>
+        <v>1398.130121868355</v>
       </c>
       <c r="K14">
-        <v>2515.757705554685</v>
+        <v>2522.650992542331</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.387782332649</v>
+        <v>95.78399331716953</v>
       </c>
       <c r="G15">
-        <v>-0.9376004138445945</v>
+        <v>-0.9211056836774016</v>
       </c>
       <c r="H15">
-        <v>1426.144004272254</v>
+        <v>1339.37446338626</v>
       </c>
       <c r="I15">
-        <v>-1051.239022266434</v>
+        <v>-1101.768156293529</v>
       </c>
       <c r="J15">
-        <v>1342.635862817427</v>
+        <v>1301.020640021087</v>
       </c>
       <c r="K15">
-        <v>2732.255328106083</v>
+        <v>2677.827667965045</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.21132477828148</v>
+        <v>89.82130894288315</v>
       </c>
       <c r="G16">
-        <v>15.7778403526906</v>
+        <v>15.98322761287115</v>
       </c>
       <c r="H16">
-        <v>1480.387682581029</v>
+        <v>1372.777830297488</v>
       </c>
       <c r="I16">
-        <v>-1008.742315949027</v>
+        <v>-1019.535611387088</v>
       </c>
       <c r="J16">
-        <v>1256.218720570312</v>
+        <v>1268.741081074807</v>
       </c>
       <c r="K16">
-        <v>2984.998608451472</v>
+        <v>2783.174097613155</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.09982280355482</v>
+        <v>87.21840300963379</v>
       </c>
       <c r="G17">
-        <v>33.34101492189173</v>
+        <v>32.16878179564394</v>
       </c>
       <c r="H17">
-        <v>1489.258469789821</v>
+        <v>1439.338747742242</v>
       </c>
       <c r="I17">
-        <v>-962.0726450451481</v>
+        <v>-951.0287983780166</v>
       </c>
       <c r="J17">
-        <v>1224.228736499426</v>
+        <v>1309.732100153054</v>
       </c>
       <c r="K17">
-        <v>2852.774816226102</v>
+        <v>3090.932862046955</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.05453320873822</v>
+        <v>79.80077393104303</v>
       </c>
       <c r="G18">
-        <v>50.35716879048439</v>
+        <v>46.56911825284679</v>
       </c>
       <c r="H18">
-        <v>1512.601703258897</v>
+        <v>1546.071649436202</v>
       </c>
       <c r="I18">
-        <v>-969.4197016641268</v>
+        <v>-947.3959911246038</v>
       </c>
       <c r="J18">
-        <v>1207.970371927527</v>
+        <v>1227.891838097671</v>
       </c>
       <c r="K18">
-        <v>3002.968058661818</v>
+        <v>3039.685291174634</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>77.75010616974201</v>
+        <v>76.15447765858582</v>
       </c>
       <c r="G19">
-        <v>68.10222117552138</v>
+        <v>64.61041952797299</v>
       </c>
       <c r="H19">
-        <v>1506.541356095111</v>
+        <v>1528.012891275646</v>
       </c>
       <c r="I19">
-        <v>-851.2766330683241</v>
+        <v>-872.2652420745783</v>
       </c>
       <c r="J19">
-        <v>1201.030008992728</v>
+        <v>1175.071708400118</v>
       </c>
       <c r="K19">
-        <v>3051.26296457038</v>
+        <v>3162.44955036589</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.28583556042048</v>
+        <v>75.63470140051159</v>
       </c>
       <c r="G20">
-        <v>83.03082543305513</v>
+        <v>85.4495849138937</v>
       </c>
       <c r="H20">
-        <v>1496.396028168185</v>
+        <v>1639.209860314958</v>
       </c>
       <c r="I20">
-        <v>-811.3281733135938</v>
+        <v>-848.7953121469782</v>
       </c>
       <c r="J20">
-        <v>1097.467153331278</v>
+        <v>1136.721139104099</v>
       </c>
       <c r="K20">
-        <v>3298.318766356232</v>
+        <v>3120.68155252014</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.30436341515005</v>
+        <v>70.71416724838593</v>
       </c>
       <c r="G21">
-        <v>96.85230149661393</v>
+        <v>101.2341360486257</v>
       </c>
       <c r="H21">
-        <v>1630.869752432525</v>
+        <v>1571.042928835585</v>
       </c>
       <c r="I21">
-        <v>-775.935979771814</v>
+        <v>-826.1261665106714</v>
       </c>
       <c r="J21">
-        <v>1093.999654371281</v>
+        <v>1087.715960469551</v>
       </c>
       <c r="K21">
-        <v>3026.619771264168</v>
+        <v>3030.783685442395</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.94236515997635</v>
+        <v>66.1762798699135</v>
       </c>
       <c r="G22">
-        <v>114.408944077201</v>
+        <v>117.4078447744902</v>
       </c>
       <c r="H22">
-        <v>1577.025461014727</v>
+        <v>1536.64888140668</v>
       </c>
       <c r="I22">
-        <v>-733.7106653800543</v>
+        <v>-782.0799541409986</v>
       </c>
       <c r="J22">
-        <v>983.9984202695384</v>
+        <v>1077.916063433702</v>
       </c>
       <c r="K22">
-        <v>3299.520642907546</v>
+        <v>3065.885687546791</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>68.33646147424432</v>
+        <v>68.54682981900909</v>
       </c>
       <c r="G23">
-        <v>136.4010844613387</v>
+        <v>127.0965220142641</v>
       </c>
       <c r="H23">
-        <v>1587.064171054707</v>
+        <v>1595.019997721544</v>
       </c>
       <c r="I23">
-        <v>-682.7552409002686</v>
+        <v>-719.8598181152149</v>
       </c>
       <c r="J23">
-        <v>966.9188329685845</v>
+        <v>950.86920074941</v>
       </c>
       <c r="K23">
-        <v>3311.783748452377</v>
+        <v>3180.703115982363</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.01994239430504</v>
+        <v>61.53065323189766</v>
       </c>
       <c r="G24">
-        <v>152.1970594669802</v>
+        <v>151.736663332184</v>
       </c>
       <c r="H24">
-        <v>1575.50648096854</v>
+        <v>1660.800898088175</v>
       </c>
       <c r="I24">
-        <v>-671.4415635018032</v>
+        <v>-656.2386517826961</v>
       </c>
       <c r="J24">
-        <v>974.1356561684794</v>
+        <v>918.2892529722612</v>
       </c>
       <c r="K24">
-        <v>3139.65033780899</v>
+        <v>3251.980125106549</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>61.21463733177666</v>
+        <v>63.31484611297659</v>
       </c>
       <c r="G25">
-        <v>159.3668894114756</v>
+        <v>157.4209126212669</v>
       </c>
       <c r="H25">
-        <v>1679.55994214098</v>
+        <v>1676.612274299039</v>
       </c>
       <c r="I25">
-        <v>-586.8871317371179</v>
+        <v>-569.0675473248672</v>
       </c>
       <c r="J25">
-        <v>881.4747581536749</v>
+        <v>924.8707376290072</v>
       </c>
       <c r="K25">
-        <v>3038.355436588763</v>
+        <v>3203.310329083861</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.93740430565614</v>
+        <v>60.71381431959566</v>
       </c>
       <c r="G26">
-        <v>178.6124416503218</v>
+        <v>173.6216655522688</v>
       </c>
       <c r="H26">
-        <v>1713.928956840954</v>
+        <v>1759.552010350284</v>
       </c>
       <c r="I26">
-        <v>-536.9701448421262</v>
+        <v>-542.1783219833669</v>
       </c>
       <c r="J26">
-        <v>832.5490658447618</v>
+        <v>837.6258846570855</v>
       </c>
       <c r="K26">
-        <v>3000.037844003822</v>
+        <v>3035.86032474649</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.39342899369344</v>
+        <v>55.76953733900513</v>
       </c>
       <c r="G27">
-        <v>202.2541405895556</v>
+        <v>195.4276325729557</v>
       </c>
       <c r="H27">
-        <v>1758.234105394917</v>
+        <v>1673.850902696945</v>
       </c>
       <c r="I27">
-        <v>-487.3170656626828</v>
+        <v>-492.0639028195001</v>
       </c>
       <c r="J27">
-        <v>761.9280288081387</v>
+        <v>790.7613256170564</v>
       </c>
       <c r="K27">
-        <v>3101.787835329688</v>
+        <v>3002.90401132836</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.51629534473161</v>
+        <v>57.30408218251094</v>
       </c>
       <c r="G28">
-        <v>209.3343097293019</v>
+        <v>222.7305172656143</v>
       </c>
       <c r="H28">
-        <v>1676.631020848775</v>
+        <v>1765.04005245306</v>
       </c>
       <c r="I28">
-        <v>-424.2324240911199</v>
+        <v>-417.0268388625062</v>
       </c>
       <c r="J28">
-        <v>704.4190277886275</v>
+        <v>725.676329523479</v>
       </c>
       <c r="K28">
-        <v>3031.632021145405</v>
+        <v>2930.472030489871</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.45495858210753</v>
+        <v>55.10575157664267</v>
       </c>
       <c r="G29">
-        <v>238.3556196142292</v>
+        <v>240.6055487645705</v>
       </c>
       <c r="H29">
-        <v>1708.073414769405</v>
+        <v>1801.048594404316</v>
       </c>
       <c r="I29">
-        <v>-377.404673383526</v>
+        <v>-372.5199119614654</v>
       </c>
       <c r="J29">
-        <v>717.4452254894453</v>
+        <v>665.9537233693338</v>
       </c>
       <c r="K29">
-        <v>2981.222976910311</v>
+        <v>2903.180606870134</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.14414223153361</v>
+        <v>51.86660714976691</v>
       </c>
       <c r="G30">
-        <v>254.3332104189231</v>
+        <v>239.5177248315093</v>
       </c>
       <c r="H30">
-        <v>1677.333351204357</v>
+        <v>1734.22483914815</v>
       </c>
       <c r="I30">
-        <v>-324.1850197329946</v>
+        <v>-309.8589091579551</v>
       </c>
       <c r="J30">
-        <v>622.6847169734164</v>
+        <v>616.4925531281008</v>
       </c>
       <c r="K30">
-        <v>2853.305770479373</v>
+        <v>2882.558150794729</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.03033996370336</v>
+        <v>54.16352700321193</v>
       </c>
       <c r="G31">
-        <v>265.0081322011449</v>
+        <v>254.0018927875065</v>
       </c>
       <c r="H31">
-        <v>1755.141263689262</v>
+        <v>1805.58841437352</v>
       </c>
       <c r="I31">
-        <v>-274.9392444319275</v>
+        <v>-278.9389253627167</v>
       </c>
       <c r="J31">
-        <v>613.2701699542293</v>
+        <v>595.9042810809472</v>
       </c>
       <c r="K31">
-        <v>2553.013386394595</v>
+        <v>2598.859466260448</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.76403060740837</v>
+        <v>51.58449861631351</v>
       </c>
       <c r="G32">
-        <v>286.3292690338964</v>
+        <v>268.3245719394025</v>
       </c>
       <c r="H32">
-        <v>1846.083771887176</v>
+        <v>1865.293479517381</v>
       </c>
       <c r="I32">
-        <v>-204.4085200878524</v>
+        <v>-206.6401897729757</v>
       </c>
       <c r="J32">
-        <v>515.8189020772478</v>
+        <v>558.4857431071999</v>
       </c>
       <c r="K32">
-        <v>2643.187589310528</v>
+        <v>2485.288004479834</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.91535667494092</v>
+        <v>50.99827429450433</v>
       </c>
       <c r="G33">
-        <v>289.0412593515981</v>
+        <v>300.8683013779214</v>
       </c>
       <c r="H33">
-        <v>1723.173628491014</v>
+        <v>1792.792625641084</v>
       </c>
       <c r="I33">
-        <v>-149.8542884181471</v>
+        <v>-142.6788728064938</v>
       </c>
       <c r="J33">
-        <v>504.8422049894945</v>
+        <v>486.5150247525905</v>
       </c>
       <c r="K33">
-        <v>2453.314227165951</v>
+        <v>2329.083722608062</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.90424487696924</v>
+        <v>47.75192730196527</v>
       </c>
       <c r="G34">
-        <v>320.23607783629</v>
+        <v>316.9428826201659</v>
       </c>
       <c r="H34">
-        <v>1858.610981902635</v>
+        <v>1726.575802869353</v>
       </c>
       <c r="I34">
-        <v>-85.63793425662377</v>
+        <v>-86.2901393831346</v>
       </c>
       <c r="J34">
-        <v>462.6616224844421</v>
+        <v>457.4780726673681</v>
       </c>
       <c r="K34">
-        <v>2311.37798595779</v>
+        <v>2231.45587602069</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>48.07403356027338</v>
+        <v>50.03583503183096</v>
       </c>
       <c r="G35">
-        <v>317.750455072544</v>
+        <v>314.4450652567472</v>
       </c>
       <c r="H35">
-        <v>1859.820954678557</v>
+        <v>1736.01451007683</v>
       </c>
       <c r="I35">
-        <v>-17.8916690765231</v>
+        <v>-19.14849055374905</v>
       </c>
       <c r="J35">
-        <v>377.5885223957052</v>
+        <v>386.0260101086228</v>
       </c>
       <c r="K35">
-        <v>2077.070348838416</v>
+        <v>2058.640358719818</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.37478270563598</v>
+        <v>48.734150976533</v>
       </c>
       <c r="G36">
-        <v>350.0086006719156</v>
+        <v>334.8403442068458</v>
       </c>
       <c r="H36">
-        <v>1841.291924214633</v>
+        <v>1904.02939204128</v>
       </c>
       <c r="I36">
-        <v>49.13164667588408</v>
+        <v>46.20850358603153</v>
       </c>
       <c r="J36">
-        <v>358.0963125251102</v>
+        <v>346.9904318099408</v>
       </c>
       <c r="K36">
-        <v>1876.956525857868</v>
+        <v>1888.095576367347</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.93545293874005</v>
+        <v>45.61115911275054</v>
       </c>
       <c r="G37">
-        <v>346.838653473346</v>
+        <v>349.8784901575408</v>
       </c>
       <c r="H37">
-        <v>1844.785701484705</v>
+        <v>1909.750971336292</v>
       </c>
       <c r="I37">
-        <v>114.2221959607923</v>
+        <v>114.9803848606429</v>
       </c>
       <c r="J37">
-        <v>282.3437718546603</v>
+        <v>296.7161007891082</v>
       </c>
       <c r="K37">
-        <v>1659.291144689574</v>
+        <v>1548.198114067383</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.69369409651437</v>
+        <v>46.36431664552627</v>
       </c>
       <c r="G38">
-        <v>381.9090061739483</v>
+        <v>397.3772322008618</v>
       </c>
       <c r="H38">
-        <v>1858.258467146712</v>
+        <v>1779.267563758446</v>
       </c>
       <c r="I38">
-        <v>186.9934337318251</v>
+        <v>183.6035980659527</v>
       </c>
       <c r="J38">
-        <v>242.7337935986145</v>
+        <v>238.0748593728403</v>
       </c>
       <c r="K38">
-        <v>1340.203334042146</v>
+        <v>1347.816556863136</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.43797337036452</v>
+        <v>45.92181860763949</v>
       </c>
       <c r="G39">
-        <v>406.3700504779537</v>
+        <v>402.3774724828253</v>
       </c>
       <c r="H39">
-        <v>1855.489746466732</v>
+        <v>1792.257852444404</v>
       </c>
       <c r="I39">
-        <v>253.2974789215895</v>
+        <v>255.9749749596441</v>
       </c>
       <c r="J39">
-        <v>208.8547888449585</v>
+        <v>200.0285292200643</v>
       </c>
       <c r="K39">
-        <v>1136.680105584259</v>
+        <v>1124.448240914612</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.01603937864974</v>
+        <v>43.05539305493333</v>
       </c>
       <c r="G40">
-        <v>416.5924017732769</v>
+        <v>392.6618088450963</v>
       </c>
       <c r="H40">
-        <v>1869.332075088565</v>
+        <v>1948.429598791387</v>
       </c>
       <c r="I40">
-        <v>314.787904860616</v>
+        <v>341.403502371982</v>
       </c>
       <c r="J40">
-        <v>155.1517301996114</v>
+        <v>156.2607674536063</v>
       </c>
       <c r="K40">
-        <v>936.1166956060486</v>
+        <v>868.4423442535053</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.28130902917043</v>
+        <v>43.33474012392067</v>
       </c>
       <c r="G41">
-        <v>445.3385617746761</v>
+        <v>411.4640823808025</v>
       </c>
       <c r="H41">
-        <v>1799.549645104924</v>
+        <v>1961.469800285697</v>
       </c>
       <c r="I41">
-        <v>384.3194882955737</v>
+        <v>408.3135787049761</v>
       </c>
       <c r="J41">
-        <v>105.3279766441393</v>
+        <v>97.68347880121522</v>
       </c>
       <c r="K41">
-        <v>615.8499220997162</v>
+        <v>623.9987568251975</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.20583885640389</v>
+        <v>42.09304777816944</v>
       </c>
       <c r="G42">
-        <v>427.5516972994364</v>
+        <v>466.3893161795042</v>
       </c>
       <c r="H42">
-        <v>1796.244292354426</v>
+        <v>1840.195918727982</v>
       </c>
       <c r="I42">
-        <v>473.303169502172</v>
+        <v>497.0713905962388</v>
       </c>
       <c r="J42">
-        <v>55.60954732190533</v>
+        <v>52.09281116507751</v>
       </c>
       <c r="K42">
-        <v>348.0520795575019</v>
+        <v>338.5958314620283</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.65505900279185</v>
+        <v>42.81011835978337</v>
       </c>
       <c r="G43">
-        <v>462.364709915573</v>
+        <v>451.9905494651366</v>
       </c>
       <c r="H43">
-        <v>1872.99457364987</v>
+        <v>1966.858995430195</v>
       </c>
       <c r="I43">
-        <v>571.1323654947668</v>
+        <v>573.7300914252415</v>
       </c>
       <c r="J43">
-        <v>5.266234779424989</v>
+        <v>5.278684210448747</v>
       </c>
       <c r="K43">
-        <v>32.73593997563594</v>
+        <v>33.96517721438716</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>43.52745643139924</v>
+        <v>39.56187141641382</v>
       </c>
       <c r="G44">
-        <v>491.9529902498576</v>
+        <v>487.6079614914051</v>
       </c>
       <c r="H44">
-        <v>1866.539667635642</v>
+        <v>1988.785159084669</v>
       </c>
       <c r="I44">
-        <v>641.5206073328605</v>
+        <v>622.4449437524802</v>
       </c>
       <c r="J44">
-        <v>-41.72907402211753</v>
+        <v>-41.29498135522462</v>
       </c>
       <c r="K44">
-        <v>-286.4619286121248</v>
+        <v>-289.7531149494035</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.35388906322427</v>
+        <v>40.97278119449851</v>
       </c>
       <c r="G45">
-        <v>506.4256565651713</v>
+        <v>488.9290285422143</v>
       </c>
       <c r="H45">
-        <v>1887.146988661214</v>
+        <v>1898.086999083821</v>
       </c>
       <c r="I45">
-        <v>710.2722569043437</v>
+        <v>724.0840455008134</v>
       </c>
       <c r="J45">
-        <v>-91.16185191595282</v>
+        <v>-93.06103601300494</v>
       </c>
       <c r="K45">
-        <v>-602.3958846966378</v>
+        <v>-592.0700335127721</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.34211314199224</v>
+        <v>41.89198355593098</v>
       </c>
       <c r="G46">
-        <v>509.642036490764</v>
+        <v>504.5805107531934</v>
       </c>
       <c r="H46">
-        <v>1907.402781420639</v>
+        <v>1837.706821233808</v>
       </c>
       <c r="I46">
-        <v>806.5018058702068</v>
+        <v>830.7071533996829</v>
       </c>
       <c r="J46">
-        <v>-147.0058321534659</v>
+        <v>-135.1977683797168</v>
       </c>
       <c r="K46">
-        <v>-993.6491321829069</v>
+        <v>-927.5034177430327</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.55521663879733</v>
+        <v>41.3654765173258</v>
       </c>
       <c r="G47">
-        <v>509.7824523111164</v>
+        <v>502.6886742080794</v>
       </c>
       <c r="H47">
-        <v>1934.706670007481</v>
+        <v>2009.03404598681</v>
       </c>
       <c r="I47">
-        <v>886.1027845223203</v>
+        <v>906.0834100317528</v>
       </c>
       <c r="J47">
-        <v>-190.9695449500583</v>
+        <v>-196.6308186209061</v>
       </c>
       <c r="K47">
-        <v>-1356.980569895611</v>
+        <v>-1313.832058802387</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.78234344468776</v>
+        <v>40.57145858936595</v>
       </c>
       <c r="G48">
-        <v>564.51978303328</v>
+        <v>571.10047373244</v>
       </c>
       <c r="H48">
-        <v>1978.359496189652</v>
+        <v>2031.070298693708</v>
       </c>
       <c r="I48">
-        <v>974.0096312212956</v>
+        <v>1025.923250216872</v>
       </c>
       <c r="J48">
-        <v>-226.3697460485701</v>
+        <v>-226.2765855226766</v>
       </c>
       <c r="K48">
-        <v>-1627.295432326213</v>
+        <v>-1635.164590249776</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.63380901769362</v>
+        <v>37.74043516229252</v>
       </c>
       <c r="G49">
-        <v>550.3735012955249</v>
+        <v>568.9612574213402</v>
       </c>
       <c r="H49">
-        <v>1899.526968295601</v>
+        <v>1900.924603447743</v>
       </c>
       <c r="I49">
-        <v>1080.813959982847</v>
+        <v>1057.431822496306</v>
       </c>
       <c r="J49">
-        <v>-283.4477754710637</v>
+        <v>-279.8742029655303</v>
       </c>
       <c r="K49">
-        <v>-2082.557612293494</v>
+        <v>-2102.964931626274</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.38652284472818</v>
+        <v>40.0623996981809</v>
       </c>
       <c r="G50">
-        <v>601.1617193299752</v>
+        <v>599.9133124222683</v>
       </c>
       <c r="H50">
-        <v>2005.015000990443</v>
+        <v>1901.939203388404</v>
       </c>
       <c r="I50">
-        <v>1107.247904741822</v>
+        <v>1159.754291143438</v>
       </c>
       <c r="J50">
-        <v>-346.8628330649101</v>
+        <v>-351.7905247740644</v>
       </c>
       <c r="K50">
-        <v>-2537.153308643396</v>
+        <v>-2428.532361709675</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.61481375595074</v>
+        <v>36.10741103733955</v>
       </c>
       <c r="G51">
-        <v>566.5952799833035</v>
+        <v>604.5461250335403</v>
       </c>
       <c r="H51">
-        <v>2018.217316435911</v>
+        <v>1967.388515588597</v>
       </c>
       <c r="I51">
-        <v>1196.829574990294</v>
+        <v>1277.191190262346</v>
       </c>
       <c r="J51">
-        <v>-402.3540067833422</v>
+        <v>-398.7063808636137</v>
       </c>
       <c r="K51">
-        <v>-3027.228015728169</v>
+        <v>-2954.227687185485</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.92790557500535</v>
+        <v>35.92342224809471</v>
       </c>
       <c r="G52">
-        <v>634.0709564499507</v>
+        <v>611.5522950419562</v>
       </c>
       <c r="H52">
-        <v>2027.811366712972</v>
+        <v>2001.302062586756</v>
       </c>
       <c r="I52">
-        <v>1381.683735422887</v>
+        <v>1375.920838679146</v>
       </c>
       <c r="J52">
-        <v>-444.7590952214483</v>
+        <v>-436.0135949989221</v>
       </c>
       <c r="K52">
-        <v>-3220.353058350624</v>
+        <v>-3497.398302919041</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.48775054583401</v>
+        <v>37.20031918789611</v>
       </c>
       <c r="G53">
-        <v>646.9542224946491</v>
+        <v>599.7392685979928</v>
       </c>
       <c r="H53">
-        <v>1985.732628308586</v>
+        <v>2010.512906475953</v>
       </c>
       <c r="I53">
-        <v>1525.27159677406</v>
+        <v>1422.423887536793</v>
       </c>
       <c r="J53">
-        <v>-486.4969023929556</v>
+        <v>-465.5952353554244</v>
       </c>
       <c r="K53">
-        <v>-3805.423339589499</v>
+        <v>-3877.778702807467</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.99732322840424</v>
+        <v>37.23124481009007</v>
       </c>
       <c r="G54">
-        <v>617.149846423141</v>
+        <v>660.3134284753738</v>
       </c>
       <c r="H54">
-        <v>1894.921012248114</v>
+        <v>2033.227818451722</v>
       </c>
       <c r="I54">
-        <v>1630.735030120731</v>
+        <v>1501.30035573718</v>
       </c>
       <c r="J54">
-        <v>-511.3845732730784</v>
+        <v>-524.1866405071416</v>
       </c>
       <c r="K54">
-        <v>-4255.899348903619</v>
+        <v>-4262.236514284633</v>
       </c>
     </row>
   </sheetData>
